--- a/RawMaterials/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
+++ b/RawMaterials/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC97AA1F-AC31-478F-B9BE-111BB56FD2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB4B979-FE0A-4E19-9A54-96A4E2F1A48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -4256,8 +4256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -24473,7 +24473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C12"/>
     </sheetView>
   </sheetViews>

--- a/RawMaterials/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
+++ b/RawMaterials/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\RawMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB4B979-FE0A-4E19-9A54-96A4E2F1A48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49028CB-06BE-4557-AAFB-860AF4CCD3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -3751,19 +3751,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="151">
@@ -4256,7 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
@@ -4366,17 +4363,17 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
@@ -4416,8 +4413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -4440,7 +4437,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>604</v>
       </c>
     </row>
@@ -4855,12 +4852,12 @@
       <c r="L14">
         <v>34.200000000000003</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A15">
@@ -5498,7 +5495,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A33">
         <v>30</v>
       </c>
@@ -5533,7 +5530,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A34">
         <v>31</v>
       </c>
@@ -5567,9 +5564,8 @@
       <c r="L34">
         <v>35.200000000000003</v>
       </c>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A35">
         <v>32</v>
       </c>
@@ -5604,7 +5600,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A36">
         <v>33</v>
       </c>
@@ -5639,7 +5635,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A37">
         <v>34</v>
       </c>
@@ -5674,7 +5670,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A38">
         <v>35</v>
       </c>
@@ -5709,7 +5705,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A39">
         <v>36</v>
       </c>
@@ -5744,7 +5740,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A40">
         <v>37</v>
       </c>
@@ -5779,7 +5775,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A41">
         <v>38</v>
       </c>
@@ -5814,7 +5810,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A42">
         <v>39</v>
       </c>
@@ -5849,7 +5845,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A43">
         <v>40</v>
       </c>
@@ -5884,7 +5880,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A44">
         <v>41</v>
       </c>
@@ -5919,7 +5915,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A45">
         <v>42</v>
       </c>
@@ -5954,7 +5950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A46">
         <v>43</v>
       </c>
@@ -5989,7 +5985,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A47">
         <v>44</v>
       </c>
@@ -6024,7 +6020,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A48">
         <v>45</v>
       </c>
@@ -8136,7 +8132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
@@ -8161,7 +8157,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8312,10 +8308,10 @@
       <c r="J8">
         <v>110</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="R8" s="9"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.6">
       <c r="A9">
@@ -9339,7 +9335,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>606</v>
       </c>
     </row>
@@ -9380,16 +9376,16 @@
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>654</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="9" t="s">
         <v>647</v>
       </c>
     </row>
@@ -9421,13 +9417,13 @@
       <c r="I5">
         <v>39</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>289.38892520000002</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>121.9111111</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>291.45454549999999</v>
       </c>
       <c r="M5">
@@ -9471,13 +9467,13 @@
       <c r="I6">
         <v>112</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>292.79925250000002</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>127.6057692</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>281.43396230000002</v>
       </c>
       <c r="M6">
@@ -9521,13 +9517,13 @@
       <c r="I7">
         <v>30</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>261.32635149999999</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>125.48387099999999</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>250.12903230000001</v>
       </c>
       <c r="M7">
@@ -9571,13 +9567,13 @@
       <c r="I8">
         <v>121</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>206.76738979999999</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>118.1284404</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>248.99099100000001</v>
       </c>
       <c r="M8">
@@ -9621,13 +9617,13 @@
       <c r="I9">
         <v>116</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>209.88725729999999</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>116.4766355</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>244.63888890000001</v>
       </c>
       <c r="M9">
@@ -9671,13 +9667,13 @@
       <c r="I10">
         <v>116</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>158.08844350000001</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>119.8596491</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>232.42982459999999</v>
       </c>
       <c r="M10">
@@ -9721,13 +9717,13 @@
       <c r="I11">
         <v>87</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>179.8969744</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>120.0705882</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>237.0963855</v>
       </c>
       <c r="M11">
@@ -9771,13 +9767,13 @@
       <c r="I12">
         <v>105</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>144.25939360000001</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>120.5961539</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>223.5238095</v>
       </c>
       <c r="M12">
@@ -9821,13 +9817,13 @@
       <c r="I13">
         <v>30</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>105.80787460000001</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>121.78125</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>178.64516130000001</v>
       </c>
       <c r="M13">
@@ -9871,13 +9867,13 @@
       <c r="I14">
         <v>114</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>74.848005209999997</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>118.4396552</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>178.173913</v>
       </c>
       <c r="M14">
@@ -9921,13 +9917,13 @@
       <c r="I15">
         <v>30</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>102.33583470000001</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>121.7</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>178.53846150000001</v>
       </c>
       <c r="M15">
@@ -9971,13 +9967,13 @@
       <c r="I16">
         <v>114</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>86.928151510000006</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>123.5090909</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>181.60952380000001</v>
       </c>
       <c r="M16">
@@ -10021,13 +10017,13 @@
       <c r="I17">
         <v>124</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>80.509979720000004</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>119.981982</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>175.212963</v>
       </c>
       <c r="M17">
@@ -10071,13 +10067,13 @@
       <c r="I18">
         <v>30</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>114.77518999999999</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>119.09375</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>210.74193550000001</v>
       </c>
       <c r="M18">
@@ -10121,13 +10117,13 @@
       <c r="I19">
         <v>30</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>153.5039913</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>118.46875</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>205.4375</v>
       </c>
       <c r="M19">
@@ -10171,13 +10167,13 @@
       <c r="I20">
         <v>30</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>135.5747188</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>120.7741936</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>197.83333329999999</v>
       </c>
       <c r="M20">
@@ -10221,13 +10217,13 @@
       <c r="I21">
         <v>30</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>122.59966420000001</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>121.8125</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>190.4375</v>
       </c>
       <c r="M21">
@@ -10289,7 +10285,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>607</v>
       </c>
     </row>
@@ -10660,7 +10656,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>608</v>
       </c>
       <c r="Q2" t="s">
@@ -10706,13 +10702,13 @@
       <c r="K4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>649</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -10747,10 +10743,10 @@
       <c r="I5">
         <v>20</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>9.1952380950000006</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>109.7839286</v>
       </c>
       <c r="L5">
@@ -10791,10 +10787,10 @@
       <c r="I6">
         <v>15</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>9.4111111110000003</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>103.92222219999999</v>
       </c>
       <c r="L6">
@@ -10832,10 +10828,10 @@
       <c r="I7">
         <v>54</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>7.5449999999999999</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>97.606190479999995</v>
       </c>
       <c r="L7">
@@ -10873,10 +10869,10 @@
       <c r="I8">
         <v>21</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>7.7011904759999998</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>99.1672619</v>
       </c>
       <c r="L8">
@@ -10914,10 +10910,10 @@
       <c r="I9">
         <v>17</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>5.4249999999999998</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>109.5916667</v>
       </c>
       <c r="L9">
@@ -10955,10 +10951,10 @@
       <c r="I10">
         <v>45</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>8.5511904760000004</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>94.924659860000006</v>
       </c>
       <c r="L10">
@@ -10996,10 +10992,10 @@
       <c r="I11">
         <v>20</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>6.8312499999999998</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>106.92083340000001</v>
       </c>
       <c r="L11">
@@ -11037,10 +11033,10 @@
       <c r="I12">
         <v>28</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>10.66857143</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>94.665714289999997</v>
       </c>
       <c r="L12">
@@ -11081,10 +11077,10 @@
       <c r="I13">
         <v>20</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>7.6142857140000002</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>98.866666679999994</v>
       </c>
       <c r="L13">
@@ -11125,10 +11121,10 @@
       <c r="I14">
         <v>18</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>7.1587301600000002</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>99.380952370000003</v>
       </c>
       <c r="L14">
@@ -11169,10 +11165,10 @@
       <c r="I15">
         <v>17</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>4.3015873019999997</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>100.6428571</v>
       </c>
       <c r="L15">
@@ -11210,10 +11206,10 @@
       <c r="I16">
         <v>41</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>11.15238095</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>91.429166670000001</v>
       </c>
       <c r="L16">
@@ -11251,10 +11247,10 @@
       <c r="I17">
         <v>19</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>11.483333330000001</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>89.974999999999994</v>
       </c>
       <c r="L17">
@@ -11292,10 +11288,10 @@
       <c r="I18">
         <v>20</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>9.7777777770000007</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>92.433333329999996</v>
       </c>
       <c r="L18">
@@ -11333,10 +11329,10 @@
       <c r="I19">
         <v>34</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>7.5416666670000003</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>100.8803571</v>
       </c>
       <c r="L19">
@@ -11374,10 +11370,10 @@
       <c r="I20">
         <v>89</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>7.1440476190000002</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>97.175630249999998</v>
       </c>
       <c r="L20">
@@ -11415,10 +11411,10 @@
       <c r="I21">
         <v>20</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>15.23611111</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>100.16666669999999</v>
       </c>
       <c r="L21">
@@ -11456,10 +11452,10 @@
       <c r="I22">
         <v>19</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>7.604761903</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>93.933333329999996</v>
       </c>
       <c r="L22">
@@ -11497,10 +11493,10 @@
       <c r="I23">
         <v>29</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>12.09285714</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>106.45714289999999</v>
       </c>
       <c r="L23">
@@ -11538,10 +11534,10 @@
       <c r="I24">
         <v>17</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>7.5857142870000001</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>104.5</v>
       </c>
       <c r="L24">
@@ -11579,10 +11575,10 @@
       <c r="I25">
         <v>40</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>8.5097222220000006</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>103.61388890000001</v>
       </c>
       <c r="L25">
@@ -11620,10 +11616,10 @@
       <c r="I26">
         <v>27</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>6.6033333330000001</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>94.766666659999999</v>
       </c>
       <c r="L26">
@@ -11661,10 +11657,10 @@
       <c r="I27">
         <v>24</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>5.47</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>97.12</v>
       </c>
       <c r="L27">
@@ -11702,10 +11698,10 @@
       <c r="I28">
         <v>20</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>11.45333333</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>98.04</v>
       </c>
       <c r="L28">
@@ -11743,10 +11739,10 @@
       <c r="I29">
         <v>18</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>9.7968253969999992</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>94.777777779999994</v>
       </c>
       <c r="L29">
@@ -11797,7 +11793,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>609</v>
       </c>
     </row>
@@ -12832,7 +12828,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>610</v>
       </c>
     </row>
@@ -13580,7 +13576,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>611</v>
       </c>
     </row>
@@ -13644,7 +13640,7 @@
       <c r="G5">
         <v>1.92</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>806.75</v>
       </c>
     </row>
@@ -13670,7 +13666,7 @@
       <c r="G6">
         <v>1.67</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>762.22222220000003</v>
       </c>
     </row>
@@ -13696,7 +13692,7 @@
       <c r="G7">
         <v>2.17</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>826.14583330000005</v>
       </c>
     </row>
@@ -13722,7 +13718,7 @@
       <c r="G8">
         <v>2.85</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>897.54861110000002</v>
       </c>
     </row>
@@ -13748,7 +13744,7 @@
       <c r="G9">
         <v>3.07</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>808.65079370000001</v>
       </c>
     </row>
@@ -13774,7 +13770,7 @@
       <c r="G10">
         <v>3.04</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>786.8125</v>
       </c>
     </row>
@@ -13800,7 +13796,7 @@
       <c r="G11">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>896.42857140000001</v>
       </c>
     </row>
@@ -13826,7 +13822,7 @@
       <c r="G12">
         <v>3.46</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>914.01388889999998</v>
       </c>
     </row>
@@ -13852,7 +13848,7 @@
       <c r="G13">
         <v>2.21</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>929.54166669999995</v>
       </c>
     </row>
@@ -13878,7 +13874,7 @@
       <c r="G14">
         <v>3.73</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>832.76388889999998</v>
       </c>
     </row>
@@ -13904,7 +13900,7 @@
       <c r="G15">
         <v>2.1</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>792.75694439999995</v>
       </c>
     </row>
@@ -13930,7 +13926,7 @@
       <c r="G16">
         <v>2.4300000000000002</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>881.55555560000005</v>
       </c>
     </row>
@@ -13956,7 +13952,7 @@
       <c r="G17">
         <v>1.81</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>858.83333330000005</v>
       </c>
     </row>
@@ -13982,7 +13978,7 @@
       <c r="G18">
         <v>2.63</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>879.88888889999998</v>
       </c>
     </row>
@@ -14008,7 +14004,7 @@
       <c r="G19">
         <v>2.09</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>832.44444439999995</v>
       </c>
     </row>
@@ -14034,7 +14030,7 @@
       <c r="G20">
         <v>3.62</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>907.01388889999998</v>
       </c>
     </row>
@@ -14060,7 +14056,7 @@
       <c r="G21">
         <v>3.25</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>868.90972220000003</v>
       </c>
     </row>
@@ -14086,7 +14082,7 @@
       <c r="G22">
         <v>4.6100000000000003</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>838.33333330000005</v>
       </c>
     </row>
@@ -14112,7 +14108,7 @@
       <c r="G23">
         <v>3.96</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>842.33333330000005</v>
       </c>
     </row>
@@ -14138,7 +14134,7 @@
       <c r="G24">
         <v>4.38</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>842.55555560000005</v>
       </c>
     </row>
@@ -14164,7 +14160,7 @@
       <c r="G25">
         <v>3.01</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>881.74305560000005</v>
       </c>
     </row>
@@ -14190,7 +14186,7 @@
       <c r="G26">
         <v>3.01</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>906.62698409999996</v>
       </c>
     </row>
@@ -14216,7 +14212,7 @@
       <c r="G27">
         <v>3.31</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>896.22222220000003</v>
       </c>
     </row>
@@ -14242,7 +14238,7 @@
       <c r="G28">
         <v>3.46</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>901.4375</v>
       </c>
     </row>
@@ -14268,7 +14264,7 @@
       <c r="G29">
         <v>2.36</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>842.11111110000002</v>
       </c>
     </row>
@@ -14294,7 +14290,7 @@
       <c r="G30">
         <v>2.25</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>864.87301590000004</v>
       </c>
     </row>
@@ -14320,7 +14316,7 @@
       <c r="G31">
         <v>2.4300000000000002</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>892.65277779999997</v>
       </c>
     </row>
@@ -14346,7 +14342,7 @@
       <c r="G32">
         <v>4.2699999999999996</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>836.41666669999995</v>
       </c>
     </row>
@@ -14372,7 +14368,7 @@
       <c r="G33">
         <v>2.74</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>745.88888889999998</v>
       </c>
     </row>
@@ -14398,7 +14394,7 @@
       <c r="G34">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>840.29861110000002</v>
       </c>
     </row>
@@ -14424,7 +14420,7 @@
       <c r="G35">
         <v>2.78</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>876</v>
       </c>
     </row>
@@ -14450,7 +14446,7 @@
       <c r="G36">
         <v>2.66</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <v>866.77777779999997</v>
       </c>
     </row>
@@ -14476,7 +14472,7 @@
       <c r="G37">
         <v>3.68</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>852.01388889999998</v>
       </c>
     </row>
@@ -14502,7 +14498,7 @@
       <c r="G38">
         <v>2.63</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>839.55555560000005</v>
       </c>
     </row>
@@ -14528,7 +14524,7 @@
       <c r="G39">
         <v>4.62</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>810.72222220000003</v>
       </c>
     </row>
@@ -14554,7 +14550,7 @@
       <c r="G40">
         <v>3.15</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>836.125</v>
       </c>
     </row>
@@ -14580,7 +14576,7 @@
       <c r="G41">
         <v>4.08</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>896.55555560000005</v>
       </c>
     </row>
@@ -14606,7 +14602,7 @@
       <c r="G42">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>878.875</v>
       </c>
     </row>
@@ -14632,7 +14628,7 @@
       <c r="G43">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>846.11111110000002</v>
       </c>
     </row>
@@ -14658,7 +14654,7 @@
       <c r="G44">
         <v>3.01</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>860.11111110000002</v>
       </c>
     </row>
@@ -14684,7 +14680,7 @@
       <c r="G45">
         <v>3.25</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>829.83333330000005</v>
       </c>
     </row>
@@ -14710,7 +14706,7 @@
       <c r="G46">
         <v>4.12</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>785.27777779999997</v>
       </c>
     </row>
@@ -14736,7 +14732,7 @@
       <c r="G47">
         <v>2.79</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>846</v>
       </c>
     </row>
@@ -14762,7 +14758,7 @@
       <c r="G48">
         <v>1.96</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>765.5625</v>
       </c>
     </row>
@@ -14788,7 +14784,7 @@
       <c r="G49">
         <v>3.24</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <v>772.61111110000002</v>
       </c>
     </row>
@@ -14814,7 +14810,7 @@
       <c r="G50">
         <v>4.82</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
         <v>741.16666669999995</v>
       </c>
     </row>
@@ -14840,7 +14836,7 @@
       <c r="G51">
         <v>4.91</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <v>746.1875</v>
       </c>
     </row>
@@ -14866,7 +14862,7 @@
       <c r="G52">
         <v>2.69</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <v>723.77777779999997</v>
       </c>
     </row>
@@ -14892,7 +14888,7 @@
       <c r="G53">
         <v>4.05</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <v>747.55555560000005</v>
       </c>
     </row>
@@ -14918,7 +14914,7 @@
       <c r="G54">
         <v>1.86</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <v>747.27777779999997</v>
       </c>
     </row>
@@ -14944,7 +14940,7 @@
       <c r="G55">
         <v>2.7</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <v>703.53472220000003</v>
       </c>
     </row>
@@ -14970,7 +14966,7 @@
       <c r="G56">
         <v>2.36</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <v>787.67361110000002</v>
       </c>
     </row>
@@ -14996,7 +14992,7 @@
       <c r="G57">
         <v>2.74</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <v>661.61111110000002</v>
       </c>
     </row>
@@ -15022,7 +15018,7 @@
       <c r="G58">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <v>595.125</v>
       </c>
     </row>
@@ -15065,7 +15061,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>612</v>
       </c>
     </row>
@@ -17067,7 +17063,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>613</v>
       </c>
     </row>
@@ -17643,7 +17639,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>596</v>
       </c>
     </row>
@@ -18115,7 +18111,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>614</v>
       </c>
     </row>
@@ -20067,7 +20063,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>615</v>
       </c>
     </row>
@@ -20108,13 +20104,13 @@
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="9" t="s">
         <v>647</v>
       </c>
     </row>
@@ -20146,13 +20142,13 @@
       <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>698.9</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>69.099999999999994</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>237.08</v>
       </c>
       <c r="M5">
@@ -20193,13 +20189,13 @@
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>636.46</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>51.36</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>233.4</v>
       </c>
       <c r="M6">
@@ -20240,13 +20236,13 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>660.04</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>51.26</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>227.2</v>
       </c>
       <c r="M7">
@@ -20290,13 +20286,13 @@
       <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>260.10000000000002</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>83.125</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>177.45</v>
       </c>
       <c r="M8">
@@ -20337,13 +20333,13 @@
       <c r="I9">
         <v>3</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>264.10000000000002</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>79.599999999999994</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>165.7666667</v>
       </c>
       <c r="M9">
@@ -20384,13 +20380,13 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>702.6</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>60.533333329999998</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>266.53333329999998</v>
       </c>
       <c r="M10">
@@ -20431,13 +20427,13 @@
       <c r="I11">
         <v>4</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>626.02499999999998</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>78.025000000000006</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>224.15</v>
       </c>
       <c r="M11">
@@ -20478,13 +20474,13 @@
       <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>615.02</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>70.28</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>220.78</v>
       </c>
       <c r="M12">
@@ -20525,13 +20521,13 @@
       <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>682.97500000000002</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>63.25</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>258.39999999999998</v>
       </c>
       <c r="M13">
@@ -20572,13 +20568,13 @@
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>676.16666669999995</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>67.2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>259.26666669999997</v>
       </c>
       <c r="M14">
@@ -20619,13 +20615,13 @@
       <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>666.97500000000002</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>65.025000000000006</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>243.4</v>
       </c>
       <c r="M15">
@@ -20666,13 +20662,13 @@
       <c r="I16">
         <v>5</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>593.84</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>70.94</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>231.58</v>
       </c>
       <c r="M16">
@@ -20713,13 +20709,13 @@
       <c r="I17">
         <v>4</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>675.6</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>67.7</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>254.2</v>
       </c>
       <c r="M17">
@@ -20760,13 +20756,13 @@
       <c r="I18">
         <v>3</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>657.66666669999995</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>68.733333329999994</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>225.6</v>
       </c>
       <c r="M18">
@@ -20807,13 +20803,13 @@
       <c r="I19">
         <v>4</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>545.72500000000002</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>69.075000000000003</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>225.67500000000001</v>
       </c>
       <c r="M19">
@@ -20854,13 +20850,13 @@
       <c r="I20">
         <v>4</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>642.02499999999998</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>69.924999999999997</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>228.22499999999999</v>
       </c>
       <c r="M20">
@@ -20901,13 +20897,13 @@
       <c r="I21">
         <v>4</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>556.04999999999995</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>75.45</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>226.42500000000001</v>
       </c>
       <c r="M21">
@@ -20948,13 +20944,13 @@
       <c r="I22">
         <v>4</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>710.3</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>74.724999999999994</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>240.75</v>
       </c>
     </row>
@@ -20986,13 +20982,13 @@
       <c r="I23">
         <v>5</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>563.26</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>71.099999999999994</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>225.26</v>
       </c>
     </row>
@@ -21024,13 +21020,13 @@
       <c r="I24">
         <v>4</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>584.22500000000002</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>75.7</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>229.85</v>
       </c>
     </row>
@@ -21062,13 +21058,13 @@
       <c r="I25">
         <v>3</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>728.76666669999997</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>40.766666669999999</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>278.2</v>
       </c>
     </row>
@@ -21100,13 +21096,13 @@
       <c r="I26">
         <v>5</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>676.18</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>60.74</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>240.06</v>
       </c>
     </row>
@@ -21138,13 +21134,13 @@
       <c r="I27">
         <v>4</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>727.77499999999998</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>62.975000000000001</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>246.02500000000001</v>
       </c>
     </row>
@@ -21176,13 +21172,13 @@
       <c r="I28">
         <v>4</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>315.07499999999999</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>64.924999999999997</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>175.95</v>
       </c>
     </row>
@@ -21214,13 +21210,13 @@
       <c r="I29">
         <v>4</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>694.45</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>59.6</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>239.9</v>
       </c>
     </row>
@@ -21252,13 +21248,13 @@
       <c r="I30">
         <v>5</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>744.42</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>58.78</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>243.94</v>
       </c>
     </row>
@@ -21290,13 +21286,13 @@
       <c r="I31">
         <v>5</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>653.70000000000005</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>55.66</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>234.12</v>
       </c>
     </row>
@@ -21328,13 +21324,13 @@
       <c r="I32">
         <v>5</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>696.46</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>59.52</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>235.22</v>
       </c>
     </row>
@@ -21366,13 +21362,13 @@
       <c r="I33">
         <v>5</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>664.72</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>59.18</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>256.52</v>
       </c>
     </row>
@@ -21404,13 +21400,13 @@
       <c r="I34">
         <v>3</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>629.6333333</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>61.6</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <v>235.1</v>
       </c>
     </row>
@@ -21442,13 +21438,13 @@
       <c r="I35">
         <v>3</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>724.3666667</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>59.4</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="5">
         <v>263.93333330000002</v>
       </c>
     </row>
@@ -21480,13 +21476,13 @@
       <c r="I36">
         <v>3</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <v>721.26666669999997</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>54.533333329999998</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="5">
         <v>261.46666670000002</v>
       </c>
     </row>
@@ -21518,13 +21514,13 @@
       <c r="I37">
         <v>4</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>204.2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>64.974999999999994</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
         <v>160.44999999999999</v>
       </c>
     </row>
@@ -21556,13 +21552,13 @@
       <c r="I38">
         <v>4</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>189.15</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>72.325000000000003</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
         <v>149.94999999999999</v>
       </c>
     </row>
@@ -21594,13 +21590,13 @@
       <c r="I39">
         <v>4</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>236.17500000000001</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>75.650000000000006</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="5">
         <v>151.97499999999999</v>
       </c>
     </row>
@@ -21632,13 +21628,13 @@
       <c r="I40">
         <v>4</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>718.52499999999998</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>54.9</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="5">
         <v>276.07499999999999</v>
       </c>
     </row>
@@ -21670,13 +21666,13 @@
       <c r="I41">
         <v>4</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>735.6</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>55.15</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <v>267.72500000000002</v>
       </c>
     </row>
@@ -21708,13 +21704,13 @@
       <c r="I42">
         <v>5</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>370.3</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>70.7</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <v>188.16</v>
       </c>
     </row>
@@ -21746,13 +21742,13 @@
       <c r="I43">
         <v>3</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>697.1</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>72.166666669999998</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="5">
         <v>232.03333330000001</v>
       </c>
     </row>
@@ -21784,13 +21780,13 @@
       <c r="I44">
         <v>3</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>619.29999999999995</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>65.866666670000001</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="5">
         <v>225.03333330000001</v>
       </c>
     </row>
@@ -21822,13 +21818,13 @@
       <c r="I45">
         <v>5</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>621.66</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>69.34</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="5">
         <v>229.24</v>
       </c>
     </row>
@@ -21860,13 +21856,13 @@
       <c r="I46">
         <v>7</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>612.55714290000003</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>73.328571429999997</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="5">
         <v>225.45714290000001</v>
       </c>
     </row>
@@ -21898,13 +21894,13 @@
       <c r="I47">
         <v>3</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>269.8666667</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>91.866666670000001</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="5">
         <v>185.2333333</v>
       </c>
     </row>
@@ -21936,13 +21932,13 @@
       <c r="I48">
         <v>3</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>469.53333329999998</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>80.833333330000002</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="5">
         <v>212.43333329999999</v>
       </c>
     </row>
@@ -21974,13 +21970,13 @@
       <c r="I49">
         <v>4</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <v>804.07500000000005</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>66.825000000000003</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="5">
         <v>270.39999999999998</v>
       </c>
     </row>
@@ -22012,13 +22008,13 @@
       <c r="I50">
         <v>4</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
         <v>522.70000000000005</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>68.349999999999994</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="5">
         <v>221.82499999999999</v>
       </c>
     </row>
@@ -22050,13 +22046,13 @@
       <c r="I51">
         <v>5</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <v>629.16</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>55.44</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="5">
         <v>232.02</v>
       </c>
     </row>
@@ -22088,13 +22084,13 @@
       <c r="I52">
         <v>4</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <v>666.75</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>50.575000000000003</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="5">
         <v>238.6</v>
       </c>
     </row>
@@ -22126,13 +22122,13 @@
       <c r="I53">
         <v>3</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <v>642.1333333</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>53.7</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="5">
         <v>241.93333329999999</v>
       </c>
     </row>
@@ -22164,13 +22160,13 @@
       <c r="I54">
         <v>4</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <v>648.29999999999995</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>67.900000000000006</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="5">
         <v>240.05</v>
       </c>
     </row>
@@ -22202,13 +22198,13 @@
       <c r="I55">
         <v>4</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <v>663.8</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <v>50.35</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="5">
         <v>268.3</v>
       </c>
     </row>
@@ -22240,13 +22236,13 @@
       <c r="I56">
         <v>6</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <v>621.8833333</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>71.766666670000006</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="5">
         <v>221.35</v>
       </c>
     </row>
@@ -22278,13 +22274,13 @@
       <c r="I57">
         <v>4</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <v>380.9</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>68.7</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="5">
         <v>186.4</v>
       </c>
     </row>
@@ -22316,13 +22312,13 @@
       <c r="I58">
         <v>5</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <v>682.3</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>68.58</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="5">
         <v>229.92</v>
       </c>
     </row>
@@ -22354,13 +22350,13 @@
       <c r="I59">
         <v>5</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="5">
         <v>705.24</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>77.66</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="5">
         <v>240.42</v>
       </c>
     </row>
@@ -22392,13 +22388,13 @@
       <c r="I60">
         <v>4</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="5">
         <v>644.57500000000005</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>78.849999999999994</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="5">
         <v>235.45</v>
       </c>
     </row>
@@ -22430,13 +22426,13 @@
       <c r="I61">
         <v>3</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="5">
         <v>671.73333330000003</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>66.3</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="5">
         <v>252.6333333</v>
       </c>
     </row>
@@ -22468,13 +22464,13 @@
       <c r="I62">
         <v>3</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="5">
         <v>278.23333330000003</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <v>60.3</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="5">
         <v>190.7666667</v>
       </c>
     </row>
@@ -22506,13 +22502,13 @@
       <c r="I63">
         <v>3</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="5">
         <v>603.33333330000005</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>52.866666670000001</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="5">
         <v>258.10000000000002</v>
       </c>
     </row>
@@ -22544,13 +22540,13 @@
       <c r="I64">
         <v>3</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="5">
         <v>663</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="5">
         <v>64.766666670000006</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="5">
         <v>235.1333333</v>
       </c>
     </row>
@@ -22582,13 +22578,13 @@
       <c r="I65">
         <v>5</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <v>587.5</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="5">
         <v>74.86</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="5">
         <v>230.96</v>
       </c>
     </row>
@@ -22620,13 +22616,13 @@
       <c r="I66">
         <v>5</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="5">
         <v>663.06</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="5">
         <v>73.56</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="5">
         <v>229.56</v>
       </c>
     </row>
@@ -22658,13 +22654,13 @@
       <c r="I67">
         <v>5</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="5">
         <v>617.88</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <v>77.28</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="5">
         <v>224.34</v>
       </c>
     </row>
@@ -22696,13 +22692,13 @@
       <c r="I68">
         <v>4</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="5">
         <v>376.625</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="5">
         <v>55.3</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="5">
         <v>194.77500000000001</v>
       </c>
     </row>
@@ -22734,13 +22730,13 @@
       <c r="I69">
         <v>5</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="5">
         <v>548.6</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
         <v>58.92</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="5">
         <v>220.66</v>
       </c>
     </row>
@@ -22772,13 +22768,13 @@
       <c r="I70">
         <v>4</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="5">
         <v>563.67499999999995</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="5">
         <v>67.625</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L70" s="5">
         <v>225.17500000000001</v>
       </c>
     </row>
@@ -22810,13 +22806,13 @@
       <c r="I71">
         <v>4</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="5">
         <v>606.92499999999995</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="5">
         <v>54.7</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71" s="5">
         <v>231.57499999999999</v>
       </c>
     </row>
@@ -22848,13 +22844,13 @@
       <c r="I72">
         <v>5</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="5">
         <v>583.38</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="5">
         <v>60.3</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72" s="5">
         <v>212.92</v>
       </c>
     </row>
@@ -22886,13 +22882,13 @@
       <c r="I73">
         <v>3</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="5">
         <v>307.2</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="5">
         <v>65.3</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L73" s="5">
         <v>177.7333333</v>
       </c>
     </row>
@@ -22924,13 +22920,13 @@
       <c r="I74">
         <v>3</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="5">
         <v>410.8</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="5">
         <v>63.666666669999998</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L74" s="5">
         <v>214.5</v>
       </c>
     </row>
@@ -22962,13 +22958,13 @@
       <c r="I75">
         <v>4</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="5">
         <v>326.625</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="5">
         <v>63.075000000000003</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75" s="5">
         <v>171.52500000000001</v>
       </c>
     </row>
@@ -23000,13 +22996,13 @@
       <c r="I76">
         <v>3</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="5">
         <v>334.56666669999998</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="5">
         <v>63.566666669999996</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L76" s="5">
         <v>185.2</v>
       </c>
     </row>
@@ -23038,13 +23034,13 @@
       <c r="I77">
         <v>3</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="5">
         <v>375.76666669999997</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="5">
         <v>67.533333330000005</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77" s="5">
         <v>193.7666667</v>
       </c>
     </row>
@@ -23076,13 +23072,13 @@
       <c r="I78">
         <v>5</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="5">
         <v>430.84</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="5">
         <v>56.92</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L78" s="5">
         <v>204.18</v>
       </c>
     </row>
@@ -23114,13 +23110,13 @@
       <c r="I79">
         <v>4</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="5">
         <v>685.875</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="5">
         <v>69.599999999999994</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L79" s="5">
         <v>235.52500000000001</v>
       </c>
     </row>
@@ -23152,13 +23148,13 @@
       <c r="I80">
         <v>3</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="5">
         <v>551.53333329999998</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="5">
         <v>69.333333330000002</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L80" s="5">
         <v>239.03333330000001</v>
       </c>
     </row>
@@ -23190,13 +23186,13 @@
       <c r="I81">
         <v>3</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="5">
         <v>682.5</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="5">
         <v>79.033333330000005</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L81" s="5">
         <v>244.1</v>
       </c>
     </row>
@@ -23228,13 +23224,13 @@
       <c r="I82">
         <v>4</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="5">
         <v>634.67499999999995</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="5">
         <v>71.825000000000003</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L82" s="5">
         <v>239.32499999999999</v>
       </c>
     </row>
@@ -23266,13 +23262,13 @@
       <c r="I83">
         <v>5</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="5">
         <v>663.66</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="5">
         <v>74.900000000000006</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L83" s="5">
         <v>233.66</v>
       </c>
     </row>
@@ -23304,13 +23300,13 @@
       <c r="I84">
         <v>4</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="5">
         <v>552.875</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K84" s="5">
         <v>70.900000000000006</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L84" s="5">
         <v>223.7</v>
       </c>
     </row>
@@ -23342,13 +23338,13 @@
       <c r="I85">
         <v>4</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="5">
         <v>664.25</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="5">
         <v>84.75</v>
       </c>
-      <c r="L85" s="6">
+      <c r="L85" s="5">
         <v>244.27500000000001</v>
       </c>
     </row>
@@ -23380,13 +23376,13 @@
       <c r="I86">
         <v>3</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="5">
         <v>671.16666669999995</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="5">
         <v>73.5</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L86" s="5">
         <v>239</v>
       </c>
     </row>
@@ -23418,13 +23414,13 @@
       <c r="I87">
         <v>3</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="5">
         <v>690.56666670000004</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="5">
         <v>77.433333329999996</v>
       </c>
-      <c r="L87" s="6">
+      <c r="L87" s="5">
         <v>255.93333329999999</v>
       </c>
     </row>
@@ -23456,13 +23452,13 @@
       <c r="I88">
         <v>3</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="5">
         <v>711.46666670000002</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="5">
         <v>57.2</v>
       </c>
-      <c r="L88" s="6">
+      <c r="L88" s="5">
         <v>255.6333333</v>
       </c>
     </row>
@@ -23494,13 +23490,13 @@
       <c r="I89">
         <v>4</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J89" s="5">
         <v>719.625</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K89" s="5">
         <v>60</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L89" s="5">
         <v>242.52500000000001</v>
       </c>
     </row>
@@ -23532,13 +23528,13 @@
       <c r="I90">
         <v>4</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J90" s="5">
         <v>714.6</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K90" s="5">
         <v>68.95</v>
       </c>
-      <c r="L90" s="6">
+      <c r="L90" s="5">
         <v>249.52500000000001</v>
       </c>
     </row>
@@ -23570,13 +23566,13 @@
       <c r="I91">
         <v>5</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="5">
         <v>660.54</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="5">
         <v>64.680000000000007</v>
       </c>
-      <c r="L91" s="6">
+      <c r="L91" s="5">
         <v>230.62</v>
       </c>
     </row>
@@ -23608,13 +23604,13 @@
       <c r="I92">
         <v>3</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="5">
         <v>202.7666667</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K92" s="5">
         <v>54.033333329999998</v>
       </c>
-      <c r="L92" s="6">
+      <c r="L92" s="5">
         <v>154.16666670000001</v>
       </c>
     </row>
@@ -23646,13 +23642,13 @@
       <c r="I93">
         <v>3</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J93" s="5">
         <v>627</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="5">
         <v>65.599999999999994</v>
       </c>
-      <c r="L93" s="6">
+      <c r="L93" s="5">
         <v>239.3</v>
       </c>
     </row>
@@ -23684,13 +23680,13 @@
       <c r="I94">
         <v>4</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J94" s="5">
         <v>627.20000000000005</v>
       </c>
-      <c r="K94" s="6">
+      <c r="K94" s="5">
         <v>69.575000000000003</v>
       </c>
-      <c r="L94" s="6">
+      <c r="L94" s="5">
         <v>235.07499999999999</v>
       </c>
     </row>
@@ -23722,13 +23718,13 @@
       <c r="I95">
         <v>3</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="5">
         <v>157.8666667</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="5">
         <v>60.1</v>
       </c>
-      <c r="L95" s="6">
+      <c r="L95" s="5">
         <v>148.6</v>
       </c>
     </row>
@@ -23760,13 +23756,13 @@
       <c r="I96">
         <v>3</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J96" s="5">
         <v>731.3</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="5">
         <v>54.6</v>
       </c>
-      <c r="L96" s="6">
+      <c r="L96" s="5">
         <v>253.03333330000001</v>
       </c>
     </row>
@@ -23798,13 +23794,13 @@
       <c r="I97">
         <v>5</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="5">
         <v>456.22</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="5">
         <v>63.42</v>
       </c>
-      <c r="L97" s="6">
+      <c r="L97" s="5">
         <v>235.3</v>
       </c>
     </row>
@@ -23836,13 +23832,13 @@
       <c r="I98">
         <v>4</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="5">
         <v>579.45000000000005</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="5">
         <v>83.95</v>
       </c>
-      <c r="L98" s="6">
+      <c r="L98" s="5">
         <v>237.95</v>
       </c>
     </row>
@@ -23874,13 +23870,13 @@
       <c r="I99">
         <v>4</v>
       </c>
-      <c r="J99" s="6">
+      <c r="J99" s="5">
         <v>482.75</v>
       </c>
-      <c r="K99" s="6">
+      <c r="K99" s="5">
         <v>78.349999999999994</v>
       </c>
-      <c r="L99" s="6">
+      <c r="L99" s="5">
         <v>212.95</v>
       </c>
     </row>
@@ -23912,13 +23908,13 @@
       <c r="I100">
         <v>4</v>
       </c>
-      <c r="J100" s="6">
+      <c r="J100" s="5">
         <v>641.20000000000005</v>
       </c>
-      <c r="K100" s="6">
+      <c r="K100" s="5">
         <v>64.875</v>
       </c>
-      <c r="L100" s="6">
+      <c r="L100" s="5">
         <v>259.77499999999998</v>
       </c>
     </row>
@@ -23950,22 +23946,22 @@
       <c r="I101">
         <v>3</v>
       </c>
-      <c r="J101" s="6">
+      <c r="J101" s="5">
         <v>563.43333329999996</v>
       </c>
-      <c r="K101" s="6">
+      <c r="K101" s="5">
         <v>60.6</v>
       </c>
-      <c r="L101" s="6">
+      <c r="L101" s="5">
         <v>239.4</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="K102" s="6">
+      <c r="K102" s="5">
         <f>AVERAGE(K5:K101)</f>
         <v>66.284882179690726</v>
       </c>
-      <c r="L102" s="6">
+      <c r="L102" s="5">
         <f>AVERAGE(L5:L101)</f>
         <v>227.25534854948464</v>
       </c>
@@ -24019,7 +24015,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>616</v>
       </c>
     </row>
@@ -24449,14 +24445,14 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24499,7 +24495,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>617</v>
       </c>
     </row>
@@ -25394,7 +25390,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>618</v>
       </c>
     </row>
@@ -25868,7 +25864,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="B11" sqref="B11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -25892,7 +25888,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>619</v>
       </c>
     </row>
@@ -26441,7 +26437,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>620</v>
       </c>
     </row>
@@ -26511,7 +26507,7 @@
       <c r="I5">
         <v>108</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>18.036100000000001</v>
       </c>
     </row>
@@ -26543,7 +26539,7 @@
       <c r="I6">
         <v>120</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>19.520800000000001</v>
       </c>
     </row>
@@ -26575,7 +26571,7 @@
       <c r="I7">
         <v>120</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>13.6225</v>
       </c>
     </row>
@@ -26607,7 +26603,7 @@
       <c r="I8">
         <v>119</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>12.784000000000001</v>
       </c>
     </row>
@@ -26639,7 +26635,7 @@
       <c r="I9">
         <v>120</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>13.8339</v>
       </c>
     </row>
@@ -26671,7 +26667,7 @@
       <c r="I10">
         <v>120</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>13.9133</v>
       </c>
     </row>
@@ -26703,7 +26699,7 @@
       <c r="I11">
         <v>120</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>17.324999999999999</v>
       </c>
     </row>
@@ -26735,7 +26731,7 @@
       <c r="I12">
         <v>120</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>17.982399999999998</v>
       </c>
     </row>
@@ -26767,7 +26763,7 @@
       <c r="I13">
         <v>120</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>16.807500000000001</v>
       </c>
     </row>
@@ -26799,7 +26795,7 @@
       <c r="I14">
         <v>132</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>13.2394</v>
       </c>
     </row>
@@ -26831,7 +26827,7 @@
       <c r="I15">
         <v>156</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>12.960900000000001</v>
       </c>
     </row>
@@ -26863,7 +26859,7 @@
       <c r="I16">
         <v>144</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>10.801399999999999</v>
       </c>
     </row>
@@ -26895,7 +26891,7 @@
       <c r="I17">
         <v>120</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>10</v>
       </c>
     </row>
@@ -27670,10 +27666,10 @@
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>649</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -28374,7 +28370,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>623</v>
       </c>
     </row>
@@ -29128,7 +29124,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>597</v>
       </c>
     </row>
@@ -29783,7 +29779,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>599</v>
       </c>
     </row>
@@ -30474,7 +30470,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>600</v>
       </c>
     </row>
@@ -30990,7 +30986,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>598</v>
       </c>
     </row>
@@ -31512,7 +31508,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:O4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -32086,26 +32082,26 @@
       </c>
     </row>
     <row r="22" spans="9:17" x14ac:dyDescent="0.6">
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="9:17" x14ac:dyDescent="0.6">
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="25" spans="9:17" x14ac:dyDescent="0.6">
       <c r="K25" t="s">
@@ -32168,66 +32164,59 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="N4" s="11" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
     </row>
     <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
@@ -34410,7 +34399,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>603</v>
       </c>
     </row>
@@ -34480,7 +34469,7 @@
       <c r="I5">
         <v>9</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>30.988600000000002</v>
       </c>
     </row>
@@ -34512,7 +34501,7 @@
       <c r="I6">
         <v>6</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>35.224400000000003</v>
       </c>
     </row>
@@ -34544,7 +34533,7 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>36.633800000000001</v>
       </c>
     </row>
@@ -34576,7 +34565,7 @@
       <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>39.103000000000002</v>
       </c>
     </row>
@@ -34608,7 +34597,7 @@
       <c r="I9">
         <v>20</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>30.426200000000001</v>
       </c>
     </row>
@@ -34640,7 +34629,7 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>42.873600000000003</v>
       </c>
     </row>
@@ -34672,7 +34661,7 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>39.029400000000003</v>
       </c>
     </row>
@@ -34704,7 +34693,7 @@
       <c r="I12">
         <v>8</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>32.7928</v>
       </c>
     </row>
@@ -34736,7 +34725,7 @@
       <c r="I13">
         <v>12</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>38.106000000000002</v>
       </c>
     </row>
